--- a/Wrocław_miejsca_odnosniki.xlsx
+++ b/Wrocław_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7ED9A-0F6D-49A3-A7C6-C0D1E7A621BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E6BFC-DC7C-4FCB-BF77-CFDFFE0A9160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>['https://www.youtube.com/watch?v=OcQRaT7rpbI', 'https://www.youtube.com/watch?v=YD5XVb7N3i0']</t>
   </si>
   <si>
-    <t>ZOO Wrocław sp.z o.o.</t>
-  </si>
-  <si>
     <t>Wrocławski Rynek</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>Katedra św. Jana Chrzciciela</t>
-  </si>
-  <si>
-    <t>kino | nowe horyzonty</t>
   </si>
   <si>
     <t>Narodowe Forum Muzyki im. Witolda Lutosławskiego</t>
@@ -828,6 +822,12 @@
   </si>
   <si>
     <t xml:space="preserve">Wyspa Słodowa to wysepka położona na rzece Odrze, znana z przeszłości maltańskiej przekształconej w tętniący życiem obszar rekreacyjny. Obecnie jest ulubionym miejscem dla studentów i młodych ludzi, cenionym za malownicze krajobrazy oraz jako scenę kulturalnych wydarzeń, takich jak koncerty czy festiwale. </t>
+  </si>
+  <si>
+    <t>ZOO Wrocław</t>
+  </si>
+  <si>
+    <t>Kino Nowe horyzonty</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,10 +1255,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>51.105629999999998</v>
@@ -1267,7 +1267,7 @@
         <v>17.076248199999998</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2">
         <v>4.7</v>
@@ -1276,16 +1276,16 @@
         <v>124689</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,10 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>51.110646600000003</v>
@@ -1308,7 +1308,7 @@
         <v>17.033242600000001</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3">
         <v>4.8</v>
@@ -1317,16 +1317,16 @@
         <v>77084</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1340,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>51.0945733</v>
@@ -1349,7 +1349,7 @@
         <v>17.018950499999999</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4">
         <v>4.3</v>
@@ -1358,16 +1358,16 @@
         <v>37415</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1378,10 +1378,10 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>51.114765599999998</v>
@@ -1390,7 +1390,7 @@
         <v>17.081054399999999</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>4.7</v>
@@ -1399,16 +1399,16 @@
         <v>29191</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1419,10 +1419,10 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>51.110304599999999</v>
@@ -1431,7 +1431,7 @@
         <v>17.0449743</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6">
         <v>4.7</v>
@@ -1440,16 +1440,16 @@
         <v>20901</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>51.109660400000003</v>
@@ -1472,7 +1472,7 @@
         <v>17.079044700000001</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7">
         <v>4.5</v>
@@ -1481,16 +1481,16 @@
         <v>19135</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1501,10 +1501,10 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>51.114701399999987</v>
@@ -1513,7 +1513,7 @@
         <v>17.042326899999999</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H8">
         <v>4.7</v>
@@ -1522,16 +1522,16 @@
         <v>16415</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1542,10 +1542,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>51.108766899999999</v>
@@ -1554,7 +1554,7 @@
         <v>17.0789492</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9">
         <v>4.7</v>
@@ -1563,16 +1563,16 @@
         <v>15221</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>51.112540099999997</v>
@@ -1595,7 +1595,7 @@
         <v>17.0397538</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10">
         <v>4.4000000000000004</v>
@@ -1604,16 +1604,16 @@
         <v>12241</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>51.116745799999997</v>
@@ -1636,7 +1636,7 @@
         <v>17.047487199999999</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H11">
         <v>4.7</v>
@@ -1645,16 +1645,16 @@
         <v>12057</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1665,10 +1665,10 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>51.106868800000001</v>
@@ -1677,7 +1677,7 @@
         <v>17.077285</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H12">
         <v>4.7</v>
@@ -1686,16 +1686,16 @@
         <v>11312</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1706,10 +1706,10 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>51.114630499999997</v>
@@ -1718,7 +1718,7 @@
         <v>17.046359800000001</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H13">
         <v>4.7</v>
@@ -1727,16 +1727,16 @@
         <v>9648</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
@@ -1747,10 +1747,10 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>51.109486399999987</v>
@@ -1759,7 +1759,7 @@
         <v>17.026408700000001</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14">
         <v>4.5999999999999996</v>
@@ -1768,16 +1768,16 @@
         <v>9225</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1788,10 +1788,10 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>51.107115399999998</v>
@@ -1800,7 +1800,7 @@
         <v>17.026389900000002</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H15">
         <v>4.8</v>
@@ -1809,16 +1809,16 @@
         <v>8727</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1832,7 +1832,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>51.1042536</v>
@@ -1841,7 +1841,7 @@
         <v>17.056648500000001</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H16">
         <v>4.4000000000000004</v>
@@ -1850,16 +1850,16 @@
         <v>7638</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1873,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>51.110905099999997</v>
@@ -1882,7 +1882,7 @@
         <v>17.047648299999999</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H17">
         <v>4.5999999999999996</v>
@@ -1891,16 +1891,16 @@
         <v>7607</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>51.116077500000003</v>
@@ -1923,7 +1923,7 @@
         <v>17.037524099999999</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>4.5999999999999996</v>
@@ -1932,16 +1932,16 @@
         <v>7278</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1952,10 +1952,10 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <v>51.1126492</v>
@@ -1964,7 +1964,7 @@
         <v>17.031294200000001</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -1973,16 +1973,16 @@
         <v>6456</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,10 +1993,10 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <v>51.120442500000003</v>
@@ -2005,7 +2005,7 @@
         <v>17.0539466</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>4.7</v>
@@ -2014,16 +2014,16 @@
         <v>5910</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2034,10 +2034,10 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>51.105643999999998</v>
@@ -2046,7 +2046,7 @@
         <v>17.031137399999999</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H21">
         <v>4.8</v>
@@ -2055,16 +2055,16 @@
         <v>4668</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2075,10 +2075,10 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22">
         <v>51.109648900000003</v>
@@ -2087,7 +2087,7 @@
         <v>17.031745600000001</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H22">
         <v>4.7</v>
@@ -2096,16 +2096,16 @@
         <v>4560</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2116,10 +2116,10 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23">
         <v>51.109478799999998</v>
@@ -2128,7 +2128,7 @@
         <v>17.031977999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23">
         <v>4.5999999999999996</v>
@@ -2137,16 +2137,16 @@
         <v>2848</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>51.122171199999997</v>
@@ -2169,7 +2169,7 @@
         <v>17.043181400000002</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24">
         <v>4.5999999999999996</v>
@@ -2178,16 +2178,16 @@
         <v>2746</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2198,10 +2198,10 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>51.108247800000001</v>
@@ -2210,7 +2210,7 @@
         <v>17.075862399999998</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H25">
         <v>4.7</v>
@@ -2219,16 +2219,16 @@
         <v>2075</v>
       </c>
       <c r="J25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2239,10 +2239,10 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <v>51.103436599999988</v>
@@ -2251,7 +2251,7 @@
         <v>17.042377200000001</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H26">
         <v>4.7</v>
@@ -2260,16 +2260,16 @@
         <v>1746</v>
       </c>
       <c r="J26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>51.107532499999998</v>
@@ -2292,7 +2292,7 @@
         <v>17.075413300000001</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H27">
         <v>4.5999999999999996</v>
@@ -2301,16 +2301,16 @@
         <v>1248</v>
       </c>
       <c r="J27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2321,10 +2321,10 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>51.113830299999996</v>
@@ -2333,7 +2333,7 @@
         <v>17.033440299999999</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28">
         <v>4.7</v>
@@ -2342,16 +2342,16 @@
         <v>1223</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2365,7 +2365,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>51.116109199999997</v>
@@ -2374,7 +2374,7 @@
         <v>17.037520399999998</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H29">
         <v>4.7</v>
@@ -2383,16 +2383,16 @@
         <v>1049</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
